--- a/trunk/my doc/Arduino/Gearuino/resistor keyboard/PhotoresistorCalc.xlsx
+++ b/trunk/my doc/Arduino/Gearuino/resistor keyboard/PhotoresistorCalc.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Skyforce\Documents\工作\my doc\Arduino\Gearuino\resistor keyboard\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24960" windowHeight="11040"/>
+    <workbookView xWindow="120" yWindow="36" windowWidth="24960" windowHeight="11040" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
-    <sheet name="工作表3" sheetId="3" r:id="rId3"/>
+    <sheet name="光敏" sheetId="1" r:id="rId1"/>
+    <sheet name="Vol" sheetId="2" r:id="rId2"/>
+    <sheet name="EV" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>down</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,12 +34,74 @@
     <t>down</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>lux</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kohm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>強烈陽光下的明亮沙灘和雪景（陰影很清晰）</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>強烈陽光下的一般場景（陰影很清晰）</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a,b</t>
+    </r>
+  </si>
+  <si>
+    <t>朦朧日光下的一般場景（陰影柔和）</t>
+  </si>
+  <si>
+    <t>明亮陰天下的一般場景（沒有陰影）</t>
+  </si>
+  <si>
+    <t>非常陰沉的一般場景</t>
+  </si>
+  <si>
+    <t>強烈陽光下四周無遮擋的陰影區</t>
+  </si>
+  <si>
+    <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -50,21 +117,55 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9F9F9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFAAAAAA"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFAAAAAA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFAAAAAA"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFAAAAAA"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -73,12 +174,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -89,6 +202,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -108,6 +224,63 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5537</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -117,12 +290,21 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$B$12:$B$16</c:f>
+              <c:f>光敏!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -146,24 +328,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$7:$C$11</c:f>
+              <c:f>光敏!$E$7:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2222222222222232</c:v>
+                  <c:v>0.50000000000000033</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.49382716049382663</c:v>
+                  <c:v>8.3333333333333343E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10973936899862809</c:v>
+                  <c:v>1.3888888888888873E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -173,12 +355,21 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$B$12:$B$16</c:f>
+              <c:f>光敏!$B$13:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -202,24 +393,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$C$12:$C$16</c:f>
+              <c:f>光敏!$E$13:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.8571428571428594</c:v>
+                  <c:v>1.2800000000000022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40816326530612268</c:v>
+                  <c:v>0.20480000000000032</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.8309037900874612E-2</c:v>
+                  <c:v>3.2768000000000082E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -234,23 +425,55 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="170516480"/>
-        <c:axId val="170523648"/>
+        <c:axId val="309269216"/>
+        <c:axId val="314969648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="170516480"/>
+        <c:axId val="309269216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170523648"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="314969648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -258,32 +481,99 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="170523648"/>
+        <c:axId val="314969648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="170516480"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="309269216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -292,25 +582,5680 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5549</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$C$7:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1999999999999814E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4352852792804098E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$7:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$C$13:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4571428571428657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54326530612245016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.537026239067079E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8906569050429595E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="312693616"/>
+        <c:axId val="306550448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="312693616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="306550448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="306550448"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312693616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5539</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$D$7:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13888888888888878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3148148148148116E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$13:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$D$13:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21333333333333362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.844444444444446E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="310306544"/>
+        <c:axId val="316585456"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="310306544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="316585456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="316585456"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310306544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5549</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10309278350515463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7343749999999929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5802953823144481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9667963150136245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9886415708875909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$17:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$E$18:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86956521739130432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6174142480211069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9545996885680195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9966596674584602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9988618300807373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$25:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3898305084745761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.694835680751174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9589118730518553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9954225617750261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9996657657842283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9998861596855422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="302970288"/>
+        <c:axId val="302972528"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="302970288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302972528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="302972528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302970288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5539</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$F$10:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16129032258064516</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1111111111111112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6144578313252977</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8205677557578994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9867942300943797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.994978084230727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$17:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$F$18:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7037037037037033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8154093097913311</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9814579066806886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9986762764675277</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9994973540588692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$25:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3898305084745761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.694835680751174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9589118730518553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9954225617750261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9996657657842283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9998861596855422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="302659360"/>
+        <c:axId val="310303184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="302659360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="310303184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="310303184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="302659360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5537</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.6692038495188099E-2"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.9155301837270341"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$G$10:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.29411764705882354</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.597122302158271</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7137200678775679</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9532435820272545</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9732061124175253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$17:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$G$18:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.9230769230769231</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8123195380173236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9698166468978409</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9952846732810743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9973076261927503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$25:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$G$26:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.3103448275862064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8780487804878048</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9805757545572265</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9969651764828162</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9995280667706217</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9997306320762291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="311463680"/>
+        <c:axId val="311464240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="311463680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311464240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="311464240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="311463680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="圖表 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="7" name="圖表 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -319,6 +6264,171 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="圖表 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="圖表 9"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="圖表 10"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="圖表 14"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -370,7 +6480,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +6515,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -614,20 +6724,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:C11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="C17:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1">
         <v>5549</v>
       </c>
+      <c r="D1">
+        <v>5539</v>
+      </c>
+      <c r="E1">
+        <v>5537</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -637,8 +6753,14 @@
       <c r="C2">
         <v>45</v>
       </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3">
         <v>100</v>
@@ -646,8 +6768,14 @@
       <c r="C3">
         <v>10</v>
       </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -657,8 +6785,14 @@
       <c r="C4">
         <v>140</v>
       </c>
+      <c r="D4">
+        <v>90</v>
+      </c>
+      <c r="E4">
+        <v>50</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5">
         <v>100</v>
@@ -666,8 +6800,14 @@
       <c r="C5">
         <v>20</v>
       </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -678,89 +6818,201 @@
         <f>C2</f>
         <v>45</v>
       </c>
+      <c r="D7">
+        <f>D2</f>
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <f>E2</f>
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>100</v>
       </c>
       <c r="C8">
-        <f>C3</f>
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <f>D3</f>
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <f>E3</f>
+        <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1000</v>
       </c>
       <c r="C9">
-        <f>POWER(10,(LOG10(B9)-1)*(LOG10(C$8*1000)-LOG10(C$7*1000))+LOG10(C$7*1000))/1000</f>
-        <v>2.2222222222222232</v>
+        <f>POWER(10,(LOG10($B9)-1)*(LOG10(C$8*1000)-LOG10(C$7*1000))+LOG10(C$7*1000))/1000</f>
+        <v>1.7999999999999989</v>
+      </c>
+      <c r="D9">
+        <f>POWER(10,(LOG10($B9)-1)*(LOG10(D$8*1000)-LOG10(D$7*1000))+LOG10(D$7*1000))/1000</f>
+        <v>0.83333333333333359</v>
+      </c>
+      <c r="E9">
+        <f>POWER(10,(LOG10($B9)-1)*(LOG10(E$8*1000)-LOG10(E$7*1000))+LOG10(E$7*1000))/1000</f>
+        <v>0.50000000000000033</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>10000</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:C11" si="0">POWER(10,(LOG10(B10)-1)*(LOG10(C$8*1000)-LOG10(C$7*1000))+LOG10(C$7*1000))/1000</f>
-        <v>0.49382716049382663</v>
+        <f t="shared" ref="C10:E12" si="0">POWER(10,(LOG10($B10)-1)*(LOG10(C$8*1000)-LOG10(C$7*1000))+LOG10(C$7*1000))/1000</f>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.13888888888888878</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333343E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>100000</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.10973936899862809</v>
+        <v>7.1999999999999814E-2</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>2.3148148148148116E-2</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.3888888888888873E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>200000</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>4.4352852792804098E-2</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>1.3497998814311943E-2</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>8.0987992885871701E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>10</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f>C4</f>
         <v>140</v>
       </c>
+      <c r="D13">
+        <f>D4</f>
+        <v>90</v>
+      </c>
+      <c r="E13">
+        <f>E4</f>
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>100</v>
       </c>
-      <c r="C13">
-        <f>C5</f>
-        <v>20</v>
+      <c r="C14">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <f>D5</f>
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <f>E5</f>
+        <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>1000</v>
       </c>
-      <c r="C14">
-        <f>POWER(10,(LOG10(B14)-1)*(LOG10(C$13*1000)-LOG10(C$12*1000))+LOG10(C$12*1000))/1000</f>
-        <v>2.8571428571428594</v>
+      <c r="C15">
+        <f>POWER(10,(LOG10($B15)-1)*(LOG10(C$14*1000)-LOG10(C$13*1000))+LOG10(C$13*1000))/1000</f>
+        <v>3.4571428571428657</v>
+      </c>
+      <c r="D15">
+        <f>POWER(10,(LOG10($B15)-1)*(LOG10(D$14*1000)-LOG10(D$13*1000))+LOG10(D$13*1000))/1000</f>
+        <v>1.6000000000000028</v>
+      </c>
+      <c r="E15">
+        <f>POWER(10,(LOG10($B15)-1)*(LOG10(E$14*1000)-LOG10(E$13*1000))+LOG10(E$13*1000))/1000</f>
+        <v>1.2800000000000022</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>10000</v>
       </c>
-      <c r="C15">
-        <f t="shared" ref="C15:C16" si="1">POWER(10,(LOG10(B15)-1)*(LOG10(C$13*1000)-LOG10(C$12*1000))+LOG10(C$12*1000))/1000</f>
-        <v>0.40816326530612268</v>
+      <c r="C16">
+        <f t="shared" ref="C16:E18" si="1">POWER(10,(LOG10($B16)-1)*(LOG10(C$14*1000)-LOG10(C$13*1000))+LOG10(C$13*1000))/1000</f>
+        <v>0.54326530612245016</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>0.21333333333333362</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0.20480000000000032</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>100000</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <f t="shared" si="1"/>
-        <v>5.8309037900874612E-2</v>
+        <v>8.537026239067079E-2</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="1"/>
+        <v>2.844444444444446E-2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>3.2768000000000082E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>200000</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>4.8906569050429595E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>1.5508784721512535E-2</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>1.8874096743311027E-2</v>
       </c>
     </row>
   </sheetData>
@@ -777,25 +7029,572 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="2.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <f>光敏!C1</f>
+        <v>5549</v>
+      </c>
+      <c r="F1">
+        <f>光敏!D1</f>
+        <v>5539</v>
+      </c>
+      <c r="G1">
+        <f>光敏!E1</f>
+        <v>5537</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f>光敏!B7</f>
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <f>(光敏!C13-光敏!C7)/2</f>
+        <v>47.5</v>
+      </c>
+      <c r="F2">
+        <f>(光敏!D13-光敏!D7)/2</f>
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <f>(光敏!E13-光敏!E7)/2</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D3">
+        <f>光敏!B8</f>
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <f>(光敏!C14-光敏!C8)/2</f>
+        <v>6.5</v>
+      </c>
+      <c r="F3">
+        <f>(光敏!D14-光敏!D8)/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="G3">
+        <f>(光敏!E14-光敏!E8)/2</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <f>光敏!B9</f>
+        <v>1000</v>
+      </c>
+      <c r="E4">
+        <f>(光敏!C15-光敏!C9)/2</f>
+        <v>0.8285714285714334</v>
+      </c>
+      <c r="F4">
+        <f>(光敏!D15-光敏!D9)/2</f>
+        <v>0.38333333333333458</v>
+      </c>
+      <c r="G4">
+        <f>(光敏!E15-光敏!E9)/2</f>
+        <v>0.39000000000000096</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <f>光敏!B10</f>
+        <v>10000</v>
+      </c>
+      <c r="E5">
+        <f>(光敏!C16-光敏!C10)/2</f>
+        <v>9.1632653061225366E-2</v>
+      </c>
+      <c r="F5">
+        <f>(光敏!D16-光敏!D10)/2</f>
+        <v>3.722222222222242E-2</v>
+      </c>
+      <c r="G5">
+        <f>(光敏!E16-光敏!E10)/2</f>
+        <v>6.0733333333333486E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <f>光敏!B11</f>
+        <v>100000</v>
+      </c>
+      <c r="E6">
+        <f>(光敏!C17-光敏!C11)/2</f>
+        <v>6.6851311953354878E-3</v>
+      </c>
+      <c r="F6">
+        <f>(光敏!D17-光敏!D11)/2</f>
+        <v>2.648148148148172E-3</v>
+      </c>
+      <c r="G6">
+        <f>(光敏!E17-光敏!E11)/2</f>
+        <v>9.4395555555556038E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>200000</v>
+      </c>
+      <c r="E7">
+        <f>(光敏!C18-光敏!C12)/2</f>
+        <v>2.2768581288127483E-3</v>
+      </c>
+      <c r="F7">
+        <f>(光敏!D18-光敏!D12)/2</f>
+        <v>1.0053929536002959E-3</v>
+      </c>
+      <c r="G7">
+        <f>(光敏!E18-光敏!E12)/2</f>
+        <v>5.3876487273619286E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f>$A$2*($D$9/(E2+$D$9))</f>
+        <v>0.10309278350515463</v>
+      </c>
+      <c r="F10">
+        <f>$A$2*($D$9/(F2+$D$9))</f>
+        <v>0.16129032258064516</v>
+      </c>
+      <c r="G10">
+        <f>$A$2*($D$9/(G2+$D$9))</f>
+        <v>0.29411764705882354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <f>$A$2*($D$9/(E3+$D$9))</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F11">
+        <f>$A$2*($D$9/(F3+$D$9))</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="G11">
+        <f>$A$2*($D$9/(G3+$D$9))</f>
+        <v>1.4285714285714284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="E12">
+        <f>$A$2*($D$9/(E4+$D$9))</f>
+        <v>2.7343749999999929</v>
+      </c>
+      <c r="F12">
+        <f>$A$2*($D$9/(F4+$D$9))</f>
+        <v>3.6144578313252977</v>
+      </c>
+      <c r="G12">
+        <f>$A$2*($D$9/(G4+$D$9))</f>
+        <v>3.597122302158271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>10000</v>
+      </c>
+      <c r="E13">
+        <f>$A$2*($D$9/(E5+$D$9))</f>
+        <v>4.5802953823144481</v>
+      </c>
+      <c r="F13">
+        <f>$A$2*($D$9/(F5+$D$9))</f>
+        <v>4.8205677557578994</v>
+      </c>
+      <c r="G13">
+        <f>$A$2*($D$9/(G5+$D$9))</f>
+        <v>4.7137200678775679</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>100000</v>
+      </c>
+      <c r="E14">
+        <f>$A$2*($D$9/(E6+$D$9))</f>
+        <v>4.9667963150136245</v>
+      </c>
+      <c r="F14">
+        <f>$A$2*($D$9/(F6+$D$9))</f>
+        <v>4.9867942300943797</v>
+      </c>
+      <c r="G14">
+        <f>$A$2*($D$9/(G6+$D$9))</f>
+        <v>4.9532435820272545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>200000</v>
+      </c>
+      <c r="E15">
+        <f>$A$2*($D$9/(E7+$D$9))</f>
+        <v>4.9886415708875909</v>
+      </c>
+      <c r="F15">
+        <f>$A$2*($D$9/(F7+$D$9))</f>
+        <v>4.994978084230727</v>
+      </c>
+      <c r="G15">
+        <f>$A$2*($D$9/(G7+$D$9))</f>
+        <v>4.9732061124175253</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <f>$A$2*($D$17/(E2+$D$17))</f>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="F18">
+        <f>$A$2*($D$17/(F2+$D$17))</f>
+        <v>1.25</v>
+      </c>
+      <c r="G18">
+        <f>$A$2*($D$17/(G2+$D$17))</f>
+        <v>1.9230769230769231</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <f>$A$2*($D$17/(E3+$D$17))</f>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="F19">
+        <f>$A$2*($D$17/(F3+$D$17))</f>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="G19">
+        <f>$A$2*($D$17/(G3+$D$17))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <f>$A$2*($D$17/(E4+$D$17))</f>
+        <v>4.6174142480211069</v>
+      </c>
+      <c r="F20">
+        <f>$A$2*($D$17/(F4+$D$17))</f>
+        <v>4.8154093097913311</v>
+      </c>
+      <c r="G20">
+        <f>$A$2*($D$17/(G4+$D$17))</f>
+        <v>4.8123195380173236</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <f>$A$2*($D$17/(E5+$D$17))</f>
+        <v>4.9545996885680195</v>
+      </c>
+      <c r="F21">
+        <f>$A$2*($D$17/(F5+$D$17))</f>
+        <v>4.9814579066806886</v>
+      </c>
+      <c r="G21">
+        <f>$A$2*($D$17/(G5+$D$17))</f>
+        <v>4.9698166468978409</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>100000</v>
+      </c>
+      <c r="E22">
+        <f>$A$2*($D$17/(E6+$D$17))</f>
+        <v>4.9966596674584602</v>
+      </c>
+      <c r="F22">
+        <f>$A$2*($D$17/(F6+$D$17))</f>
+        <v>4.9986762764675277</v>
+      </c>
+      <c r="G22">
+        <f>$A$2*($D$17/(G6+$D$17))</f>
+        <v>4.9952846732810743</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>200000</v>
+      </c>
+      <c r="E23">
+        <f>$A$2*($D$17/(E7+$D$17))</f>
+        <v>4.9988618300807373</v>
+      </c>
+      <c r="F23">
+        <f>$A$2*($D$17/(F7+$D$17))</f>
+        <v>4.9994973540588692</v>
+      </c>
+      <c r="G23">
+        <f>$A$2*($D$17/(G7+$D$17))</f>
+        <v>4.9973076261927503</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>100</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <f>$A$2*($D$25/(E2+$D$25))</f>
+        <v>3.3898305084745761</v>
+      </c>
+      <c r="F26">
+        <f>$A$2*($D$25/(F2+$D$25))</f>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="G26">
+        <f>$A$2*($D$25/(G2+$D$25))</f>
+        <v>4.3103448275862064</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <f>$A$2*($D$25/(E3+$D$25))</f>
+        <v>4.694835680751174</v>
+      </c>
+      <c r="F27">
+        <f>$A$2*($D$25/(F3+$D$25))</f>
+        <v>4.8309178743961354</v>
+      </c>
+      <c r="G27">
+        <f>$A$2*($D$25/(G3+$D$25))</f>
+        <v>4.8780487804878048</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>1000</v>
+      </c>
+      <c r="E28">
+        <f>$A$2*($D$25/(E4+$D$25))</f>
+        <v>4.9589118730518553</v>
+      </c>
+      <c r="F28">
+        <f>$A$2*($D$25/(F4+$D$25))</f>
+        <v>4.9809065249875477</v>
+      </c>
+      <c r="G28">
+        <f>$A$2*($D$25/(G4+$D$25))</f>
+        <v>4.9805757545572265</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>10000</v>
+      </c>
+      <c r="E29">
+        <f>$A$2*($D$25/(E5+$D$25))</f>
+        <v>4.9954225617750261</v>
+      </c>
+      <c r="F29">
+        <f>$A$2*($D$25/(F5+$D$25))</f>
+        <v>4.9981395813780418</v>
+      </c>
+      <c r="G29">
+        <f>$A$2*($D$25/(G5+$D$25))</f>
+        <v>4.9969651764828162</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>100000</v>
+      </c>
+      <c r="E30">
+        <f>$A$2*($D$25/(E6+$D$25))</f>
+        <v>4.9996657657842283</v>
+      </c>
+      <c r="F30">
+        <f>$A$2*($D$25/(F6+$D$25))</f>
+        <v>4.9998675960988432</v>
+      </c>
+      <c r="G30">
+        <f>$A$2*($D$25/(G6+$D$25))</f>
+        <v>4.9995280667706217</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>200000</v>
+      </c>
+      <c r="E31">
+        <f>$A$2*($D$25/(E7+$D$25))</f>
+        <v>4.9998861596855422</v>
+      </c>
+      <c r="F31">
+        <f>$A$2*($D$25/(F7+$D$25))</f>
+        <v>4.9999497308577219</v>
+      </c>
+      <c r="G31">
+        <f>$A$2*($D$25/(G7+$D$25))</f>
+        <v>4.9997306320762291</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>16</v>
+      </c>
+      <c r="C2" s="4">
+        <v>163840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5">
+        <v>81920</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5">
+        <v>40960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3">
+        <v>13</v>
+      </c>
+      <c r="C5" s="5">
+        <v>20480</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="3">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10240</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/trunk/my doc/Arduino/Gearuino/resistor keyboard/PhotoresistorCalc.xlsx
+++ b/trunk/my doc/Arduino/Gearuino/resistor keyboard/PhotoresistorCalc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="24960" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="30" windowWidth="24960" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="光敏" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>down</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>Scene</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>buyic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icshop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +288,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$13:$B$18</c:f>
+              <c:f>光敏!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -307,7 +315,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$E$7:$E$12</c:f>
+              <c:f>光敏!$E$8:$E$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -351,7 +359,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$13:$B$18</c:f>
+              <c:f>光敏!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -378,7 +386,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$E$13:$E$18</c:f>
+              <c:f>光敏!$E$14:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -415,11 +423,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128664704"/>
-        <c:axId val="128666240"/>
+        <c:axId val="127340928"/>
+        <c:axId val="127342464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128664704"/>
+        <c:axId val="127340928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +470,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128666240"/>
+        <c:crossAx val="127342464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -470,7 +478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128666240"/>
+        <c:axId val="127342464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -522,7 +530,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128664704"/>
+        <c:crossAx val="127340928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -588,6 +596,825 @@
     <c:title>
       <c:tx>
         <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5549</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$25:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$26:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10309278350515463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7343749999999929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5802953823144481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9667963150136245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9886415708875909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$33:$E$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>10 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$26:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$E$34:$E$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.86956521739130432</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0303030303030303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6174142480211069</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9545996885680195</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9966596674584602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9988618300807373</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$41:$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$26:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$E$42:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.3898305084745761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.694835680751174</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9589118730518553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9954225617750261</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9996657657842283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9998861596855422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="173475328"/>
+        <c:axId val="173476864"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="173475328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173476864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173476864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="173475328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5549</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$17:$E$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.1 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$E$18:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0504201680672268E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.5757575757575774E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53846153846153566</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6091586794462076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6866887109556385</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8886914317437693</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$9:$E$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$E$10:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0524100189433804E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.6804915514592934E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9625212947188755E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49196787148593957</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9966800629040331</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0727032499181712</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$D$25:$E$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1 kohm</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$26:$D$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$E$26:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.10309278350515463</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7343749999999929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5802953823144481</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9667963150136245</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9886415708875909</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173499136"/>
+        <c:axId val="173500672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173499136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173500672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173500672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173499136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
           <a:bodyPr/>
           <a:lstStyle/>
           <a:p>
@@ -838,11 +1665,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156227456"/>
-        <c:axId val="156228992"/>
+        <c:axId val="173543424"/>
+        <c:axId val="173544960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156227456"/>
+        <c:axId val="173543424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,12 +1679,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156228992"/>
+        <c:crossAx val="173544960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156228992"/>
+        <c:axId val="173544960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,7 +1695,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156227456"/>
+        <c:crossAx val="173543424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -890,7 +1717,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -1157,11 +1984,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156267648"/>
-        <c:axId val="156269184"/>
+        <c:axId val="173612032"/>
+        <c:axId val="173736704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156267648"/>
+        <c:axId val="173612032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1171,12 +1998,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156269184"/>
+        <c:crossAx val="173736704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156269184"/>
+        <c:axId val="173736704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1187,798 +2014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156267648"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>0.01kohm</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5549</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$J$10:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0524100189433804E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3645350361287919E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7716357106366072E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8038073170972316E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7830135460201039E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.076023187014138E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5539</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$K$10:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.6661112962345885E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3976558831977397E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2541514424753552E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0352276503821822E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2159159417793434E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9007926724277796E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5537</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$L$10:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.1230480949406619E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8663634033509936E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1675520141655565E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4653366844695658E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0724388478174434E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7728406802546858E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5528</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$M$10:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.3194675540765382E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0157250393027642E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4478639964703911E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3738577914815211E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8147920234114422E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1835233859965476E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="156640384"/>
-        <c:axId val="156641920"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="156640384"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156641920"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="156641920"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156640384"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>0.01kohm</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5549</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$J$10:$J$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0524100189433804E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.3645350361287919E-5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.7716357106366072E-5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.8038073170972316E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7830135460201039E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.076023187014138E-5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5539</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$K$10:$K$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.6661112962345885E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3976558831977397E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2541514424753552E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0352276503821822E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2159159417793434E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.9007926724277796E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5537</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$L$10:$L$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.1230480949406619E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.8663634033509936E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.1675520141655565E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.4653366844695658E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.0724388478174434E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.7728406802546858E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5528</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$M$10:$M$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.3194675540765382E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0157250393027642E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.4478639964703911E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3738577914815211E-5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.8147920234114422E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.1835233859965476E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="156689536"/>
-        <c:axId val="156691072"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="156689536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="200000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156691072"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="156691072"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000006E-4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156689536"/>
+        <c:crossAx val="173612032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2025,7 +2061,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>0.1kohm</a:t>
+              <a:t>0.01kohm</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -2037,15 +2073,15 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vol!$J$1</c:f>
+              <c:f>Vol!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2057,9 +2093,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$18:$D$23</c:f>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2083,42 +2119,42 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$J$18:$J$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0504201680672268E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.2503748974337226E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.1411551411551101E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3007746010940798E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3083667016771456E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0200272078813075E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$L$10:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0524100189433804E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3645350361287919E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7716357106366072E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8038073170972316E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7830135460201039E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.076023187014138E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vol!$K$1</c:f>
+              <c:f>Vol!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2130,9 +2166,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$18:$D$23</c:f>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2156,42 +2192,42 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$K$18:$K$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.6611295681063123E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.3586399245313974E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.9510429970199794E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.8991577085950927E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.3636486475629292E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.92222499001376E-7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$M$10:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6661112962345885E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3976558831977397E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2541514424753552E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0352276503821822E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2159159417793434E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9007926724277796E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vol!$L$1</c:f>
+              <c:f>Vol!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2203,9 +2239,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$18:$D$23</c:f>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2229,42 +2265,42 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$L$18:$L$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.105590062111801E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.79168657429527E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.2011163439734654E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.3225936302904949E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6199884152728009E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7565698284234888E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$N$10:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1230480949406619E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8663634033509936E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1675520141655565E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4653366844695658E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0724388478174434E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7728406802546858E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vol!$M$1</c:f>
+              <c:f>Vol!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2276,9 +2312,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$18:$D$23</c:f>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2302,35 +2338,35 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$M$18:$M$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>8.1967213114754103E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.7929568913175463E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0482202598385167E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1060398177958744E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4770948854262124E-5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8376426162330351E-6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$O$10:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3194675540765382E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0157250393027642E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4478639964703911E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3738577914815211E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8147920234114422E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1835233859965476E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2340,14 +2376,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156402816"/>
-        <c:axId val="156404352"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="156402816"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="173947904"/>
+        <c:axId val="173957888"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="173947904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2355,15 +2392,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156404352"/>
+        <c:crossAx val="173957888"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="156404352"/>
+        <c:axId val="173957888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2.0000000000000006E-4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2372,9 +2411,9 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156402816"/>
+        <c:crossAx val="173947904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -2419,13 +2458,796 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>0.01kohm</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5549</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$L$10:$L$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0524100189433804E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3645350361287919E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7716357106366072E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8038073170972316E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7830135460201039E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.076023187014138E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5539</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$M$10:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6661112962345885E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3976558831977397E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2541514424753552E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0352276503821822E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2159159417793434E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9007926724277796E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5537</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$N$10:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1230480949406619E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8663634033509936E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1675520141655565E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4653366844695658E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0724388478174434E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.7728406802546858E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5528</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$10:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$O$10:$O$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.3194675540765382E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0157250393027642E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4478639964703911E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3738577914815211E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8147920234114422E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.1835233859965476E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173984768"/>
+        <c:axId val="173998848"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173984768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173998848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173998848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000006E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173984768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>0.1kohm</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5549</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$L$18:$L$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0504201680672268E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2503748974337226E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.1411551411551101E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3007746010940798E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3083667016771456E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0200272078813075E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5539</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$M$18:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.6611295681063123E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3586399245313974E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9510429970199794E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.8991577085950927E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3636486475629292E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.92222499001376E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5537</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$N$18:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.105590062111801E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.79168657429527E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.2011163439734654E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3225936302904949E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6199884152728009E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7565698284234888E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Vol!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5528</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Vol!$D$18:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Vol!$O$18:$O$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8.1967213114754103E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7929568913175463E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0482202598385167E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1060398177958744E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4770948854262124E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8376426162330351E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="107191296"/>
+        <c:axId val="107193088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="107191296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107193088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="107193088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0000000000000006E-4"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="107191296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
               <a:t>5528</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2661,11 +3483,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="165877632"/>
-        <c:axId val="157889280"/>
+        <c:axId val="135362816"/>
+        <c:axId val="158138368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="165877632"/>
+        <c:axId val="135362816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,12 +3497,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157889280"/>
+        <c:crossAx val="158138368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157889280"/>
+        <c:axId val="158138368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2691,14 +3513,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165877632"/>
+        <c:crossAx val="135362816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2748,7 +3569,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>5549</a:t>
+              <a:t>5539</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -2787,7 +3608,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$7:$B$12</c:f>
+              <c:f>光敏!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2814,27 +3635,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$C$7:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.7999999999999989</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.35999999999999943</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.1999999999999814E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.4352852792804098E-2</c:v>
+              <c:f>光敏!$D$8:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83333333333333359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13888888888888878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3148148148148116E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3497998814311943E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2858,7 +3679,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$7:$B$12</c:f>
+              <c:f>光敏!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -2885,27 +3706,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$C$13:$C$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.4571428571428657</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.54326530612245016</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.537026239067079E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8906569050429595E-2</c:v>
+              <c:f>光敏!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6000000000000028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21333333333333362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.844444444444446E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5508784721512535E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2922,11 +3743,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128687104"/>
-        <c:axId val="149885696"/>
+        <c:axId val="164431360"/>
+        <c:axId val="164455936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128687104"/>
+        <c:axId val="164431360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2969,7 +3790,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149885696"/>
+        <c:crossAx val="164455936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2977,7 +3798,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149885696"/>
+        <c:axId val="164455936"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3029,7 +3850,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128687104"/>
+        <c:crossAx val="164431360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3113,7 +3934,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>5539</a:t>
+              <a:t>5549</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
@@ -3152,7 +3973,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$13:$B$18</c:f>
+              <c:f>光敏!$B$8:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3179,27 +4000,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$D$7:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.83333333333333359</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13888888888888878</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3148148148148116E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.3497998814311943E-2</c:v>
+              <c:f>光敏!$C$8:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.35999999999999943</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1999999999999814E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4352852792804098E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3223,7 +4044,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$13:$B$18</c:f>
+              <c:f>光敏!$B$8:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3250,27 +4071,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$D$13:$D$18</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.6000000000000028</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.21333333333333362</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.844444444444446E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.5508784721512535E-2</c:v>
+              <c:f>光敏!$C$14:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4571428571428657</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.54326530612245016</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.537026239067079E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8906569050429595E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,11 +4108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149910656"/>
-        <c:axId val="149912192"/>
+        <c:axId val="174971904"/>
+        <c:axId val="185790464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149910656"/>
+        <c:axId val="174971904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +4155,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149912192"/>
+        <c:crossAx val="185790464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3342,10 +4163,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149912192"/>
+        <c:axId val="185790464"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3394,7 +4216,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="149910656"/>
+        <c:crossAx val="174971904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3491,7 +4313,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$13:$B$18</c:f>
+              <c:f>光敏!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3518,7 +4340,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$F$7:$F$12</c:f>
+              <c:f>光敏!$F$8:$F$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3553,7 +4375,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>光敏!$B$13:$B$18</c:f>
+              <c:f>光敏!$B$14:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3580,7 +4402,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>光敏!$F$13:$F$18</c:f>
+              <c:f>光敏!$F$14:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -3617,11 +4439,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="149937152"/>
-        <c:axId val="149943040"/>
+        <c:axId val="164487168"/>
+        <c:axId val="164488704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="149937152"/>
+        <c:axId val="164487168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,7 +4453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149943040"/>
+        <c:crossAx val="164488704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3639,7 +4461,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="149943040"/>
+        <c:axId val="164488704"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3651,7 +4473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="149937152"/>
+        <c:crossAx val="164487168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3669,6 +4491,457 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>5003</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$H$8:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0000000000000018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.40000000000000024</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000043E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9280947547560287E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$H$14:$H$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.050000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91125000000000245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20503125000000061</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1308601957686705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="186159488"/>
+        <c:axId val="186161408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="186159488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186161408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="186161408"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="186159488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>9006</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$G$8:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6000000000000045</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72000000000000153</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14400000000000027</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.8705705585608599E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>光敏!$B$14:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>光敏!$G$14:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2083333333333313</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0850694444444424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.22605613425925875</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14097504757166882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="164631296"/>
+        <c:axId val="164633216"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="164631296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164633216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164633216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="164631296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -3981,11 +5254,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150071552"/>
-        <c:axId val="152244224"/>
+        <c:axId val="173219840"/>
+        <c:axId val="173221376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150071552"/>
+        <c:axId val="173219840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4028,7 +5301,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152244224"/>
+        <c:crossAx val="173221376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4036,7 +5309,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152244224"/>
+        <c:axId val="173221376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4087,7 +5360,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150071552"/>
+        <c:crossAx val="173219840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4168,7 +5441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -4491,11 +5764,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152270720"/>
-        <c:axId val="152272256"/>
+        <c:axId val="173272064"/>
+        <c:axId val="173409024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152270720"/>
+        <c:axId val="173272064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4538,7 +5811,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152272256"/>
+        <c:crossAx val="173409024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4546,7 +5819,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152272256"/>
+        <c:axId val="173409024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4597,831 +5870,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="152270720"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="1"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-TW"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-TW"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>5528</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$D$25:$E$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 kohm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$42:$D$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$H$26:$H$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.71428571428571419</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.083333333333333</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.8710926158908343</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.7275917322693886</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9452424010742675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9666422240393864</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$D$33:$E$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 kohm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$42:$D$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$H$34:$H$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.125</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.3859649122807012</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.8583192644504631</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9713545887948722</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9944697317494802</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9966440720713816</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$D$41:$E$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100 kohm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$42:$D$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$H$42:$H$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.716981132075472</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.9309664694280073</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9854611489244496</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9971206122552125</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9994464221167938</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9996642043640662</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="156112000"/>
-        <c:axId val="156113536"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="156112000"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156113536"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="156113536"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156112000"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="1"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-TW"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>5549</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$D$25:$E$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1 kohm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$26:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$E$26:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.10309278350515463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7343749999999929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5802953823144481</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9667963150136245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9886415708875909</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$D$33:$E$33</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10 kohm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$26:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$E$34:$E$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.86956521739130432</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0303030303030303</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.6174142480211069</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9545996885680195</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9966596674584602</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9988618300807373</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Vol!$D$41:$E$41</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>100 kohm</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Vol!$D$26:$D$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>100000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>200000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Vol!$E$42:$E$47</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>3.3898305084745761</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.694835680751174</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.9589118730518553</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.9954225617750261</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9996657657842283</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9998861596855422</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="156168192"/>
-        <c:axId val="156169728"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="156168192"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="156169728"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="156169728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="zh-TW"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="156168192"/>
+        <c:crossAx val="173272064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5527,31 +5976,30 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-TW"/>
-              <a:t>5549</a:t>
+              <a:t>5528</a:t>
             </a:r>
             <a:endParaRPr lang="zh-TW" altLang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vol!$D$17:$E$17</c:f>
+              <c:f>Vol!$D$25:$E$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.1 kohm</c:v>
+                  <c:v>1 kohm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5559,9 +6007,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$18:$D$23</c:f>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$42:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5585,46 +6033,46 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$E$18:$E$23</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0504201680672268E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5757575757575774E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.53846153846153566</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6091586794462076</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.6866887109556385</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.8886914317437693</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$H$26:$H$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.71428571428571419</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.083333333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8710926158908343</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7275917322693886</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9452424010742675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9666422240393864</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vol!$D$9:$E$9</c:f>
+              <c:f>Vol!$D$33:$E$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.01 kohm</c:v>
+                  <c:v>10 kohm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5632,9 +6080,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$10:$D$15</c:f>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$42:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5658,46 +6106,46 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$E$10:$E$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>1.0524100189433804E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.6804915514592934E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9625212947188755E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.49196787148593957</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.9966800629040331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0727032499181712</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$H$34:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3859649122807012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.8583192644504631</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9713545887948722</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9944697317494802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9966440720713816</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Vol!$D$25:$E$25</c:f>
+              <c:f>Vol!$D$41:$E$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1 kohm</c:v>
+                  <c:v>100 kohm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5705,9 +6153,9 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Vol!$D$26:$D$31</c:f>
+          <c:cat>
+            <c:numRef>
+              <c:f>Vol!$D$42:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5731,35 +6179,35 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Vol!$E$26:$E$31</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.10309278350515463</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.66666666666666663</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.7343749999999929</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.5802953823144481</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.9667963150136245</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.9886415708875909</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Vol!$H$42:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.716981132075472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9309664694280073</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9854611489244496</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9971206122552125</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.9994464221167938</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9996642043640662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5769,11 +6217,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="156199552"/>
-        <c:axId val="156205440"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="156199552"/>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="173439232"/>
+        <c:axId val="173445120"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="173439232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,12 +6233,15 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156205440"/>
+        <c:crossAx val="173445120"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="156205440"/>
+        <c:axId val="173445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5799,15 +6252,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156199552"/>
+        <c:crossAx val="173439232"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -5825,15 +6277,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5857,20 +6309,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="圖表 8"/>
+        <xdr:cNvPr id="13" name="圖表 12"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5889,20 +6341,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="圖表 9"/>
+        <xdr:cNvPr id="14" name="圖表 13"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5921,20 +6373,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="圖表 7"/>
+        <xdr:cNvPr id="15" name="圖表 14"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -5951,6 +6403,70 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="圖表 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="圖表 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5958,13 +6474,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>186690</xdr:rowOff>
@@ -5990,13 +6506,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -6022,13 +6538,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
@@ -6054,13 +6570,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>186690</xdr:rowOff>
@@ -6086,13 +6602,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
@@ -6118,13 +6634,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -6150,13 +6666,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -6182,13 +6698,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
@@ -6214,13 +6730,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -6246,13 +6762,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -6278,13 +6794,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
@@ -6598,364 +7114,504 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U19" sqref="U17:U19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C2">
         <v>5549</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>5539</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>5537</v>
       </c>
-      <c r="F1">
+      <c r="F2">
         <v>5528</v>
       </c>
+      <c r="G2">
+        <v>9006</v>
+      </c>
+      <c r="H2">
+        <v>5003</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>45</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>30</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>8</v>
       </c>
+      <c r="G3">
+        <v>90</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4">
         <v>100</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>0.9</v>
       </c>
+      <c r="G4">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>140</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>90</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>50</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>20</v>
       </c>
+      <c r="G5">
+        <v>120</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
-      <c r="B5">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>20</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>3.7</v>
       </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>18</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>10</v>
       </c>
-      <c r="C7">
-        <f>C2</f>
+      <c r="C8">
+        <f>C3</f>
         <v>45</v>
-      </c>
-      <c r="D7">
-        <f>D2</f>
-        <v>30</v>
-      </c>
-      <c r="E7">
-        <f>E2</f>
-        <v>18</v>
-      </c>
-      <c r="F7">
-        <f>F2</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
       </c>
       <c r="D8">
         <f>D3</f>
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <f>E3</f>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F8">
         <f>F3</f>
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G8:H8" si="0">G3</f>
+        <v>90</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <f>D4</f>
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <f>E4</f>
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <f>F4</f>
         <v>0.9</v>
       </c>
+      <c r="G9">
+        <f t="shared" ref="G9:H9" si="1">G4</f>
+        <v>18</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10">
         <v>1000</v>
       </c>
-      <c r="C9">
-        <f>POWER(10,(LOG10($B9)-1)*(LOG10(C$8*1000)-LOG10(C$7*1000))+LOG10(C$7*1000))/1000</f>
+      <c r="C10">
+        <f>POWER(10,(LOG10($B10)-1)*(LOG10(C$9*1000)-LOG10(C$8*1000))+LOG10(C$8*1000))/1000</f>
         <v>1.7999999999999989</v>
       </c>
-      <c r="D9">
-        <f>POWER(10,(LOG10($B9)-1)*(LOG10(D$8*1000)-LOG10(D$7*1000))+LOG10(D$7*1000))/1000</f>
+      <c r="D10">
+        <f>POWER(10,(LOG10($B10)-1)*(LOG10(D$9*1000)-LOG10(D$8*1000))+LOG10(D$8*1000))/1000</f>
         <v>0.83333333333333359</v>
       </c>
-      <c r="E9">
-        <f>POWER(10,(LOG10($B9)-1)*(LOG10(E$8*1000)-LOG10(E$7*1000))+LOG10(E$7*1000))/1000</f>
+      <c r="E10">
+        <f>POWER(10,(LOG10($B10)-1)*(LOG10(E$9*1000)-LOG10(E$8*1000))+LOG10(E$8*1000))/1000</f>
         <v>0.50000000000000033</v>
       </c>
-      <c r="F9">
-        <f>POWER(10,(LOG10($B9)-1)*(LOG10(F$8*1000)-LOG10(F$7*1000))+LOG10(F$7*1000))/1000</f>
+      <c r="F10">
+        <f>POWER(10,(LOG10($B10)-1)*(LOG10(F$9*1000)-LOG10(F$8*1000))+LOG10(F$8*1000))/1000</f>
         <v>0.10124999999999994</v>
       </c>
+      <c r="G10">
+        <f t="shared" ref="G10:J10" si="2">POWER(10,(LOG10($B10)-1)*(LOG10(G$9*1000)-LOG10(G$8*1000))+LOG10(G$8*1000))/1000</f>
+        <v>3.6000000000000045</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>2.0000000000000018</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B10">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11">
         <v>10000</v>
       </c>
-      <c r="C10">
-        <f t="shared" ref="C10:F12" si="0">POWER(10,(LOG10($B10)-1)*(LOG10(C$8*1000)-LOG10(C$7*1000))+LOG10(C$7*1000))/1000</f>
+      <c r="C11">
+        <f t="shared" ref="C11:J13" si="3">POWER(10,(LOG10($B11)-1)*(LOG10(C$9*1000)-LOG10(C$8*1000))+LOG10(C$8*1000))/1000</f>
         <v>0.35999999999999943</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
+      <c r="D11">
+        <f t="shared" si="3"/>
         <v>0.13888888888888878</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="E11">
+        <f t="shared" si="3"/>
         <v>8.3333333333333343E-2</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
+      <c r="F11">
+        <f t="shared" si="3"/>
         <v>1.1390624999999986E-2</v>
       </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>0.72000000000000153</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.40000000000000024</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>100000</v>
       </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
+      <c r="C12">
+        <f t="shared" si="3"/>
         <v>7.1999999999999814E-2</v>
       </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
+      <c r="D12">
+        <f t="shared" si="3"/>
         <v>2.3148148148148116E-2</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="E12">
+        <f t="shared" si="3"/>
         <v>1.3888888888888873E-2</v>
       </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
+      <c r="F12">
+        <f t="shared" si="3"/>
         <v>1.2814453124999972E-3</v>
       </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>0.14400000000000027</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>8.0000000000000043E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>200000</v>
       </c>
-      <c r="C12">
-        <f t="shared" si="0"/>
+      <c r="C13">
+        <f t="shared" si="3"/>
         <v>4.4352852792804098E-2</v>
       </c>
-      <c r="D12">
-        <f t="shared" si="0"/>
+      <c r="D13">
+        <f t="shared" si="3"/>
         <v>1.3497998814311943E-2</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="E13">
+        <f t="shared" si="3"/>
         <v>8.0987992885871701E-3</v>
       </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
+      <c r="F13">
+        <f t="shared" si="3"/>
         <v>6.6384780671261822E-4</v>
       </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>8.8705705585608599E-2</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>4.9280947547560287E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>10</v>
       </c>
-      <c r="C13">
-        <f>C4</f>
+      <c r="C14">
+        <f>C5</f>
         <v>140</v>
-      </c>
-      <c r="D13">
-        <f>D4</f>
-        <v>90</v>
-      </c>
-      <c r="E13">
-        <f>E4</f>
-        <v>50</v>
-      </c>
-      <c r="F13">
-        <f>F4</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>22</v>
       </c>
       <c r="D14">
         <f>D5</f>
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="E14">
         <f>E5</f>
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <f>F5</f>
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:H14" si="4">G5</f>
+        <v>120</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <f>D6</f>
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <f>E6</f>
+        <v>8</v>
+      </c>
+      <c r="F15">
+        <f>F6</f>
         <v>3.7</v>
       </c>
+      <c r="G15">
+        <f t="shared" ref="G15:H15" si="5">G6</f>
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16">
         <v>1000</v>
       </c>
-      <c r="C15">
-        <f>POWER(10,(LOG10($B15)-1)*(LOG10(C$14*1000)-LOG10(C$13*1000))+LOG10(C$13*1000))/1000</f>
+      <c r="C16">
+        <f>POWER(10,(LOG10($B16)-1)*(LOG10(C$15*1000)-LOG10(C$14*1000))+LOG10(C$14*1000))/1000</f>
         <v>3.4571428571428657</v>
       </c>
-      <c r="D15">
-        <f>POWER(10,(LOG10($B15)-1)*(LOG10(D$14*1000)-LOG10(D$13*1000))+LOG10(D$13*1000))/1000</f>
+      <c r="D16">
+        <f>POWER(10,(LOG10($B16)-1)*(LOG10(D$15*1000)-LOG10(D$14*1000))+LOG10(D$14*1000))/1000</f>
         <v>1.6000000000000028</v>
       </c>
-      <c r="E15">
-        <f>POWER(10,(LOG10($B15)-1)*(LOG10(E$14*1000)-LOG10(E$13*1000))+LOG10(E$13*1000))/1000</f>
+      <c r="E16">
+        <f>POWER(10,(LOG10($B16)-1)*(LOG10(E$15*1000)-LOG10(E$14*1000))+LOG10(E$14*1000))/1000</f>
         <v>1.2800000000000022</v>
       </c>
-      <c r="F15">
-        <f>POWER(10,(LOG10($B15)-1)*(LOG10(F$14*1000)-LOG10(F$13*1000))+LOG10(F$13*1000))/1000</f>
+      <c r="F16">
+        <f>POWER(10,(LOG10($B16)-1)*(LOG10(F$15*1000)-LOG10(F$14*1000))+LOG10(F$14*1000))/1000</f>
         <v>0.68450000000000044</v>
       </c>
+      <c r="G16">
+        <f t="shared" ref="G16:J16" si="6">POWER(10,(LOG10($B16)-1)*(LOG10(G$15*1000)-LOG10(G$14*1000))+LOG10(G$14*1000))/1000</f>
+        <v>5.2083333333333313</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>4.050000000000006</v>
+      </c>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
         <v>10000</v>
       </c>
-      <c r="C16">
-        <f t="shared" ref="C16:F18" si="1">POWER(10,(LOG10($B16)-1)*(LOG10(C$14*1000)-LOG10(C$13*1000))+LOG10(C$13*1000))/1000</f>
+      <c r="C17">
+        <f t="shared" ref="C17:J19" si="7">POWER(10,(LOG10($B17)-1)*(LOG10(C$15*1000)-LOG10(C$14*1000))+LOG10(C$14*1000))/1000</f>
         <v>0.54326530612245016</v>
       </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
+      <c r="D17">
+        <f t="shared" si="7"/>
         <v>0.21333333333333362</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
+      <c r="E17">
+        <f t="shared" si="7"/>
         <v>0.20480000000000032</v>
       </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
+      <c r="F17">
+        <f t="shared" si="7"/>
         <v>0.12663250000000004</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="7"/>
+        <v>1.0850694444444424</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="7"/>
+        <v>0.91125000000000245</v>
+      </c>
     </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
         <v>100000</v>
       </c>
-      <c r="C17">
-        <f t="shared" si="1"/>
+      <c r="C18">
+        <f t="shared" si="7"/>
         <v>8.537026239067079E-2</v>
       </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
+      <c r="D18">
+        <f t="shared" si="7"/>
         <v>2.844444444444446E-2</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
+      <c r="E18">
+        <f t="shared" si="7"/>
         <v>3.2768000000000082E-2</v>
       </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
+      <c r="F18">
+        <f t="shared" si="7"/>
         <v>2.3427012499999997E-2</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="7"/>
+        <v>0.22605613425925875</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="7"/>
+        <v>0.20503125000000061</v>
+      </c>
     </row>
-    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
         <v>200000</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="1"/>
+      <c r="C19">
+        <f t="shared" si="7"/>
         <v>4.8906569050429595E-2</v>
       </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
+      <c r="D19">
+        <f t="shared" si="7"/>
         <v>1.5508784721512535E-2</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
+      <c r="E19">
+        <f t="shared" si="7"/>
         <v>1.8874096743311027E-2</v>
       </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
+      <c r="F19">
+        <f t="shared" si="7"/>
         <v>1.4096575374306138E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="7"/>
+        <v>0.14097504757166882</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="7"/>
+        <v>0.1308601957686705</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6966,55 +7622,64 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="2.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1">
-        <f>光敏!C1</f>
+        <f>光敏!C2</f>
         <v>5549</v>
       </c>
       <c r="F1">
-        <f>光敏!D1</f>
+        <f>光敏!D2</f>
         <v>5539</v>
       </c>
       <c r="G1">
-        <f>光敏!E1</f>
+        <f>光敏!E2</f>
         <v>5537</v>
       </c>
       <c r="H1">
+        <f>光敏!F2</f>
         <v>5528</v>
       </c>
+      <c r="I1">
+        <f>光敏!G2</f>
+        <v>9006</v>
+      </c>
       <c r="J1">
+        <f>光敏!H2</f>
+        <v>5003</v>
+      </c>
+      <c r="L1">
         <f>E1</f>
         <v>5549</v>
       </c>
-      <c r="K1">
-        <f t="shared" ref="K1:M1" si="0">F1</f>
+      <c r="M1">
+        <f t="shared" ref="M1:O1" si="0">F1</f>
         <v>5539</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <f t="shared" si="0"/>
         <v>5537</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <f t="shared" si="0"/>
         <v>5528</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -7022,137 +7687,184 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <f>光敏!B7</f>
+        <f>光敏!B8</f>
         <v>10</v>
       </c>
       <c r="E2">
-        <f>(光敏!C13-光敏!C7)/2</f>
+        <f>(光敏!C14-光敏!C8)/2</f>
         <v>47.5</v>
       </c>
       <c r="F2">
-        <f>(光敏!D13-光敏!D7)/2</f>
+        <f>(光敏!D14-光敏!D8)/2</f>
         <v>30</v>
       </c>
       <c r="G2">
-        <f>(光敏!E13-光敏!E7)/2</f>
+        <f>(光敏!E14-光敏!E8)/2</f>
         <v>16</v>
       </c>
       <c r="H2">
-        <f>(光敏!F13-光敏!F7)/2</f>
+        <f>(光敏!F14-光敏!F8)/2</f>
         <v>6</v>
       </c>
+      <c r="I2">
+        <f>(光敏!G14-光敏!G8)/2</f>
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <f>(光敏!H14-光敏!H8)/2</f>
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D3">
-        <f>光敏!B8</f>
+        <f>光敏!B9</f>
         <v>100</v>
       </c>
       <c r="E3">
-        <f>(光敏!C14-光敏!C8)/2</f>
+        <f>(光敏!C15-光敏!C9)/2</f>
         <v>6.5</v>
       </c>
       <c r="F3">
-        <f>(光敏!D14-光敏!D8)/2</f>
+        <f>(光敏!D15-光敏!D9)/2</f>
         <v>3.5</v>
       </c>
       <c r="G3">
-        <f>(光敏!E14-光敏!E8)/2</f>
+        <f>(光敏!E15-光敏!E9)/2</f>
         <v>2.5</v>
       </c>
       <c r="H3">
-        <f>(光敏!F14-光敏!F8)/2</f>
+        <f>(光敏!F15-光敏!F9)/2</f>
         <v>1.4000000000000001</v>
       </c>
+      <c r="I3">
+        <f>(光敏!G15-光敏!G9)/2</f>
+        <v>3.5</v>
+      </c>
+      <c r="J3">
+        <f>(光敏!H15-光敏!H9)/2</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D4">
-        <f>光敏!B9</f>
+        <f>光敏!B10</f>
         <v>1000</v>
       </c>
       <c r="E4">
-        <f>(光敏!C15-光敏!C9)/2</f>
+        <f>(光敏!C16-光敏!C10)/2</f>
         <v>0.8285714285714334</v>
       </c>
       <c r="F4">
-        <f>(光敏!D15-光敏!D9)/2</f>
+        <f>(光敏!D16-光敏!D10)/2</f>
         <v>0.38333333333333458</v>
       </c>
       <c r="G4">
-        <f>(光敏!E15-光敏!E9)/2</f>
+        <f>(光敏!E16-光敏!E10)/2</f>
         <v>0.39000000000000096</v>
       </c>
       <c r="H4">
-        <f>(光敏!F15-光敏!F9)/2</f>
+        <f>(光敏!F16-光敏!F10)/2</f>
         <v>0.29162500000000025</v>
       </c>
+      <c r="I4">
+        <f>(光敏!G16-光敏!G10)/2</f>
+        <v>0.80416666666666337</v>
+      </c>
+      <c r="J4">
+        <f>(光敏!H16-光敏!H10)/2</f>
+        <v>1.0250000000000021</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D5">
-        <f>光敏!B10</f>
+        <f>光敏!B11</f>
         <v>10000</v>
       </c>
       <c r="E5">
-        <f>(光敏!C16-光敏!C10)/2</f>
+        <f>(光敏!C17-光敏!C11)/2</f>
         <v>9.1632653061225366E-2</v>
       </c>
       <c r="F5">
-        <f>(光敏!D16-光敏!D10)/2</f>
+        <f>(光敏!D17-光敏!D11)/2</f>
         <v>3.722222222222242E-2</v>
       </c>
       <c r="G5">
-        <f>(光敏!E16-光敏!E10)/2</f>
+        <f>(光敏!E17-光敏!E11)/2</f>
         <v>6.0733333333333486E-2</v>
       </c>
       <c r="H5">
-        <f>(光敏!F16-光敏!F10)/2</f>
+        <f>(光敏!F17-光敏!F11)/2</f>
         <v>5.7620937500000025E-2</v>
       </c>
+      <c r="I5">
+        <f>(光敏!G17-光敏!G11)/2</f>
+        <v>0.18253472222222045</v>
+      </c>
+      <c r="J5">
+        <f>(光敏!H17-光敏!H11)/2</f>
+        <v>0.2556250000000011</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D6">
-        <f>光敏!B11</f>
+        <f>光敏!B12</f>
         <v>100000</v>
       </c>
       <c r="E6">
-        <f>(光敏!C17-光敏!C11)/2</f>
+        <f>(光敏!C18-光敏!C12)/2</f>
         <v>6.6851311953354878E-3</v>
       </c>
       <c r="F6">
-        <f>(光敏!D17-光敏!D11)/2</f>
+        <f>(光敏!D18-光敏!D12)/2</f>
         <v>2.648148148148172E-3</v>
       </c>
       <c r="G6">
-        <f>(光敏!E17-光敏!E11)/2</f>
+        <f>(光敏!E18-光敏!E12)/2</f>
         <v>9.4395555555556038E-3</v>
       </c>
       <c r="H6">
-        <f>(光敏!F17-光敏!F11)/2</f>
+        <f>(光敏!F18-光敏!F12)/2</f>
         <v>1.107278359375E-2</v>
       </c>
+      <c r="I6">
+        <f>(光敏!G18-光敏!G12)/2</f>
+        <v>4.1028067129629239E-2</v>
+      </c>
+      <c r="J6">
+        <f>(光敏!H18-光敏!H12)/2</f>
+        <v>6.2515625000000283E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>200000</v>
       </c>
       <c r="E7">
-        <f>(光敏!C18-光敏!C12)/2</f>
+        <f>(光敏!C19-光敏!C13)/2</f>
         <v>2.2768581288127483E-3</v>
       </c>
       <c r="F7">
-        <f>(光敏!D18-光敏!D12)/2</f>
+        <f>(光敏!D19-光敏!D13)/2</f>
         <v>1.0053929536002959E-3</v>
       </c>
       <c r="G7">
-        <f>(光敏!E18-光敏!E12)/2</f>
+        <f>(光敏!E19-光敏!E13)/2</f>
         <v>5.3876487273619286E-3</v>
       </c>
       <c r="H7">
-        <f>(光敏!F18-光敏!F12)/2</f>
+        <f>(光敏!F19-光敏!F13)/2</f>
         <v>6.7163637837967596E-3</v>
       </c>
+      <c r="I7">
+        <f>(光敏!G19-光敏!G13)/2</f>
+        <v>2.6134670993030108E-2</v>
+      </c>
+      <c r="J7">
+        <f>(光敏!H19-光敏!H13)/2</f>
+        <v>4.0789624110555103E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>0.01</v>
       </c>
@@ -7160,7 +7872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>10</v>
       </c>
@@ -7180,210 +7892,257 @@
         <f t="shared" si="1"/>
         <v>8.3194675540765387E-3</v>
       </c>
+      <c r="I10">
+        <f t="shared" ref="I10:J10" si="2">$A$2*($D$9/(I2+$D$9))</f>
+        <v>3.3311125916055963E-3</v>
+      </c>
       <c r="J10">
+        <f t="shared" si="2"/>
+        <v>3.3311125916055963E-3</v>
+      </c>
+      <c r="L10">
         <f>E10/$D10</f>
         <v>1.0524100189433804E-4</v>
       </c>
-      <c r="K10">
-        <f t="shared" ref="K10:M10" si="2">F10/$D10</f>
+      <c r="M10">
+        <f t="shared" ref="M10:O10" si="3">F10/$D10</f>
         <v>1.6661112962345885E-4</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="2"/>
+      <c r="N10">
+        <f t="shared" si="3"/>
         <v>3.1230480949406619E-4</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="2"/>
+      <c r="O10">
+        <f t="shared" si="3"/>
         <v>8.3194675540765382E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>100</v>
       </c>
       <c r="E11">
-        <f t="shared" ref="E11:H15" si="3">$A$2*($D$9/(E3+$D$9))</f>
+        <f t="shared" ref="E11:H15" si="4">$A$2*($D$9/(E3+$D$9))</f>
         <v>7.6804915514592934E-3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4245014245014245E-2</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.9920318725099605E-2</v>
       </c>
       <c r="H11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.5460992907801414E-2</v>
       </c>
+      <c r="I11">
+        <f t="shared" ref="I11:J11" si="5">$A$2*($D$9/(I3+$D$9))</f>
+        <v>1.4245014245014245E-2</v>
+      </c>
       <c r="J11">
+        <f t="shared" si="5"/>
+        <v>1.2468827930174566E-2</v>
+      </c>
+      <c r="L11">
         <f>(E11-E10)/($D11-$D10)</f>
         <v>7.3645350361287919E-5</v>
       </c>
-      <c r="K11">
-        <f t="shared" ref="K11:M11" si="4">(F11-F10)/($D11-$D10)</f>
+      <c r="M11">
+        <f t="shared" ref="M11:O11" si="6">(F11-F10)/($D11-$D10)</f>
         <v>1.3976558831977397E-4</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="4"/>
+      <c r="N11">
+        <f t="shared" si="6"/>
         <v>1.8663634033509936E-4</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="4"/>
+      <c r="O11">
+        <f t="shared" si="6"/>
         <v>3.0157250393027642E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>1000</v>
       </c>
       <c r="E12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.9625212947188755E-2</v>
       </c>
       <c r="F12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12711864406779622</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12499999999999969</v>
       </c>
       <c r="H12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.16576875259013663</v>
       </c>
+      <c r="I12">
+        <f t="shared" ref="I12:J12" si="7">$A$2*($D$9/(I4+$D$9))</f>
+        <v>6.1412487205732079E-2</v>
+      </c>
       <c r="J12">
-        <f t="shared" ref="J12:J15" si="5">(E12-E11)/($D12-$D11)</f>
+        <f t="shared" si="7"/>
+        <v>4.8309178743961255E-2</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L15" si="8">(E12-E11)/($D12-$D11)</f>
         <v>5.7716357106366072E-5</v>
       </c>
-      <c r="K12">
-        <f t="shared" ref="K12:K15" si="6">(F12-F11)/($D12-$D11)</f>
+      <c r="M12">
+        <f t="shared" ref="M12:M15" si="9">(F12-F11)/($D12-$D11)</f>
         <v>1.2541514424753552E-4</v>
       </c>
-      <c r="L12">
-        <f t="shared" ref="L12:L15" si="7">(G12-G11)/($D12-$D11)</f>
+      <c r="N12">
+        <f t="shared" ref="N12:N15" si="10">(G12-G11)/($D12-$D11)</f>
         <v>1.1675520141655565E-4</v>
       </c>
-      <c r="M12">
-        <f t="shared" ref="M12:M15" si="8">(H12-H11)/($D12-$D11)</f>
+      <c r="O12">
+        <f t="shared" ref="O12:O15" si="11">(H12-H11)/($D12-$D11)</f>
         <v>1.4478639964703911E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>10000</v>
       </c>
       <c r="E13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.49196787148593957</v>
       </c>
       <c r="F13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0588235294117603</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70688030160226056</v>
       </c>
       <c r="H13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.73941595382347347</v>
       </c>
+      <c r="I13">
+        <f t="shared" ref="I13:J13" si="12">$A$2*($D$9/(I5+$D$9))</f>
+        <v>0.25969341749323954</v>
+      </c>
       <c r="J13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
+        <v>0.18823529411764628</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
         <v>4.8038073170972316E-5</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="6"/>
+      <c r="M13">
+        <f t="shared" si="9"/>
         <v>1.0352276503821822E-4</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="7"/>
+      <c r="N13">
+        <f t="shared" si="10"/>
         <v>6.4653366844695658E-5</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="8"/>
+      <c r="O13">
+        <f t="shared" si="11"/>
         <v>6.3738577914815211E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>100000</v>
       </c>
       <c r="E14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9966800629040331</v>
       </c>
       <c r="F14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.9531478770131696</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5720752646379594</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.3727287748937713</v>
       </c>
+      <c r="I14">
+        <f t="shared" ref="I14:J14" si="13">$A$2*($D$9/(I6+$D$9))</f>
+        <v>0.97985290865480779</v>
+      </c>
       <c r="J14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
+        <v>0.68950657185951048</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="8"/>
         <v>2.7830135460201039E-5</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="6"/>
+      <c r="M14">
+        <f t="shared" si="9"/>
         <v>3.2159159417793434E-5</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="7"/>
+      <c r="N14">
+        <f t="shared" si="10"/>
         <v>2.0724388478174434E-5</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="8"/>
+      <c r="O14">
+        <f t="shared" si="11"/>
         <v>1.8147920234114422E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D15">
         <v>200000</v>
       </c>
       <c r="E15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.0727032499181712</v>
       </c>
       <c r="F15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.5432271442559475</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.249359332663428</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9910811134934261</v>
       </c>
+      <c r="I15">
+        <f t="shared" ref="I15:J15" si="14">$A$2*($D$9/(I7+$D$9))</f>
+        <v>1.3837126124558965</v>
+      </c>
       <c r="J15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
+        <v>0.98445304283338841</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
         <v>1.076023187014138E-5</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="6"/>
+      <c r="M15">
+        <f t="shared" si="9"/>
         <v>5.9007926724277796E-6</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="7"/>
+      <c r="N15">
+        <f t="shared" si="10"/>
         <v>6.7728406802546858E-6</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="8"/>
+      <c r="O15">
+        <f t="shared" si="11"/>
         <v>6.1835233859965476E-6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>0.1</v>
       </c>
@@ -7391,7 +8150,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>10</v>
       </c>
@@ -7400,220 +8159,268 @@
         <v>1.0504201680672268E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" ref="F18:H18" si="9">$A$2*($D$17/(F2+$D$17))</f>
+        <f t="shared" ref="F18:H18" si="15">$A$2*($D$17/(F2+$D$17))</f>
         <v>1.6611295681063124E-2</v>
       </c>
       <c r="G18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>3.1055900621118009E-2</v>
       </c>
       <c r="H18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>8.1967213114754106E-2</v>
       </c>
+      <c r="I18">
+        <f t="shared" ref="I18:J18" si="16">$A$2*($D$17/(I2+$D$17))</f>
+        <v>3.3112582781456956E-2</v>
+      </c>
       <c r="J18">
+        <f t="shared" si="16"/>
+        <v>3.3112582781456956E-2</v>
+      </c>
+      <c r="L18">
         <f>E18/$D18</f>
         <v>1.0504201680672268E-3</v>
       </c>
-      <c r="K18">
-        <f t="shared" ref="K18" si="10">F18/$D18</f>
+      <c r="M18">
+        <f t="shared" ref="M18" si="17">F18/$D18</f>
         <v>1.6611295681063123E-3</v>
       </c>
-      <c r="L18">
-        <f t="shared" ref="L18" si="11">G18/$D18</f>
+      <c r="N18">
+        <f t="shared" ref="N18" si="18">G18/$D18</f>
         <v>3.105590062111801E-3</v>
       </c>
-      <c r="M18">
-        <f t="shared" ref="M18" si="12">H18/$D18</f>
+      <c r="O18">
+        <f t="shared" ref="O18" si="19">H18/$D18</f>
         <v>8.1967213114754103E-3</v>
       </c>
     </row>
-    <row r="19" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>100</v>
       </c>
       <c r="E19">
-        <f t="shared" ref="E19:H19" si="13">$A$2*($D$17/(E3+$D$17))</f>
+        <f t="shared" ref="E19:H19" si="20">$A$2*($D$17/(E3+$D$17))</f>
         <v>7.5757575757575774E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.1388888888888889</v>
       </c>
       <c r="G19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.19230769230769232</v>
       </c>
       <c r="H19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>0.33333333333333331</v>
       </c>
+      <c r="I19">
+        <f t="shared" ref="I19:J19" si="21">$A$2*($D$17/(I3+$D$17))</f>
+        <v>0.1388888888888889</v>
+      </c>
       <c r="J19">
+        <f t="shared" si="21"/>
+        <v>0.12195121951219515</v>
+      </c>
+      <c r="L19">
         <f>(E19-E18)/($D19-$D18)</f>
         <v>7.2503748974337226E-4</v>
       </c>
-      <c r="K19">
-        <f t="shared" ref="K19:K23" si="14">(F19-F18)/($D19-$D18)</f>
+      <c r="M19">
+        <f t="shared" ref="M19:M23" si="22">(F19-F18)/($D19-$D18)</f>
         <v>1.3586399245313974E-3</v>
       </c>
-      <c r="L19">
-        <f t="shared" ref="L19:L23" si="15">(G19-G18)/($D19-$D18)</f>
+      <c r="N19">
+        <f t="shared" ref="N19:N23" si="23">(G19-G18)/($D19-$D18)</f>
         <v>1.79168657429527E-3</v>
       </c>
-      <c r="M19">
-        <f t="shared" ref="M19:M23" si="16">(H19-H18)/($D19-$D18)</f>
+      <c r="O19">
+        <f t="shared" ref="O19:O23" si="24">(H19-H18)/($D19-$D18)</f>
         <v>2.7929568913175463E-3</v>
       </c>
     </row>
-    <row r="20" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>1000</v>
       </c>
       <c r="E20">
-        <f t="shared" ref="E20:H20" si="17">$A$2*($D$17/(E4+$D$17))</f>
+        <f t="shared" ref="E20:H20" si="25">$A$2*($D$17/(E4+$D$17))</f>
         <v>0.53846153846153566</v>
       </c>
       <c r="F20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.0344827586206871</v>
       </c>
       <c r="G20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.0204081632653041</v>
       </c>
       <c r="H20">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>1.2767315671879982</v>
       </c>
+      <c r="I20">
+        <f t="shared" ref="I20:J20" si="26">$A$2*($D$17/(I4+$D$17))</f>
+        <v>0.55299539170507117</v>
+      </c>
       <c r="J20">
-        <f t="shared" ref="J20:J23" si="18">(E20-E19)/($D20-$D19)</f>
+        <f t="shared" si="26"/>
+        <v>0.44444444444444353</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ref="L20:L23" si="27">(E20-E19)/($D20-$D19)</f>
         <v>5.1411551411551101E-4</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="14"/>
+      <c r="M20">
+        <f t="shared" si="22"/>
         <v>9.9510429970199794E-4</v>
       </c>
-      <c r="L20">
-        <f t="shared" si="15"/>
+      <c r="N20">
+        <f t="shared" si="23"/>
         <v>9.2011163439734654E-4</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="16"/>
+      <c r="O20">
+        <f t="shared" si="24"/>
         <v>1.0482202598385167E-3</v>
       </c>
     </row>
-    <row r="21" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D21">
         <v>10000</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:H21" si="19">$A$2*($D$17/(E5+$D$17))</f>
+        <f t="shared" ref="E21:H21" si="28">$A$2*($D$17/(E5+$D$17))</f>
         <v>2.6091586794462076</v>
       </c>
       <c r="F21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>3.6437246963562702</v>
       </c>
       <c r="G21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>3.1107424305267495</v>
       </c>
       <c r="H21">
-        <f t="shared" si="19"/>
+        <f t="shared" si="28"/>
         <v>3.172167403204285</v>
       </c>
+      <c r="I21">
+        <f t="shared" ref="I21:J21" si="29">$A$2*($D$17/(I5+$D$17))</f>
+        <v>1.7696939904141691</v>
+      </c>
       <c r="J21">
-        <f t="shared" si="18"/>
+        <f t="shared" si="29"/>
+        <v>1.4059753954305756</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="27"/>
         <v>2.3007746010940798E-4</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="14"/>
+      <c r="M21">
+        <f t="shared" si="22"/>
         <v>2.8991577085950927E-4</v>
       </c>
-      <c r="L21">
-        <f t="shared" si="15"/>
+      <c r="N21">
+        <f t="shared" si="23"/>
         <v>2.3225936302904949E-4</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="16"/>
+      <c r="O21">
+        <f t="shared" si="24"/>
         <v>2.1060398177958744E-4</v>
       </c>
     </row>
-    <row r="22" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D22">
         <v>100000</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:H22" si="20">$A$2*($D$17/(E6+$D$17))</f>
+        <f t="shared" ref="E22:H22" si="30">$A$2*($D$17/(E6+$D$17))</f>
         <v>4.6866887109556385</v>
       </c>
       <c r="F22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4.8710084791629065</v>
       </c>
       <c r="G22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4.5687320042722703</v>
       </c>
       <c r="H22">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>4.5015528000878762</v>
       </c>
+      <c r="I22">
+        <f t="shared" ref="I22:J22" si="31">$A$2*($D$17/(I6+$D$17))</f>
+        <v>3.5453935530465253</v>
+      </c>
       <c r="J22">
-        <f t="shared" si="18"/>
+        <f t="shared" si="31"/>
+        <v>3.0766272473800544</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="27"/>
         <v>2.3083667016771456E-5</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="14"/>
+      <c r="M22">
+        <f t="shared" si="22"/>
         <v>1.3636486475629292E-5</v>
       </c>
-      <c r="L22">
-        <f t="shared" si="15"/>
+      <c r="N22">
+        <f t="shared" si="23"/>
         <v>1.6199884152728009E-5</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="16"/>
+      <c r="O22">
+        <f t="shared" si="24"/>
         <v>1.4770948854262124E-5</v>
       </c>
     </row>
-    <row r="23" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D23">
         <v>200000</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:H23" si="21">$A$2*($D$17/(E7+$D$17))</f>
+        <f t="shared" ref="E23:H23" si="32">$A$2*($D$17/(E7+$D$17))</f>
         <v>4.8886914317437693</v>
       </c>
       <c r="F23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>4.9502307290630441</v>
       </c>
       <c r="G23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>4.7443889871146192</v>
       </c>
       <c r="H23">
-        <f t="shared" si="21"/>
+        <f t="shared" si="32"/>
         <v>4.6853170617111797</v>
       </c>
+      <c r="I23">
+        <f t="shared" ref="I23:J23" si="33">$A$2*($D$17/(I7+$D$17))</f>
+        <v>3.9640171577220729</v>
+      </c>
       <c r="J23">
-        <f t="shared" si="18"/>
+        <f t="shared" si="33"/>
+        <v>3.5513980746718579</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="27"/>
         <v>2.0200272078813075E-6</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="14"/>
+      <c r="M23">
+        <f t="shared" si="22"/>
         <v>7.92222499001376E-7</v>
       </c>
-      <c r="L23">
-        <f t="shared" si="15"/>
+      <c r="N23">
+        <f t="shared" si="23"/>
         <v>1.7565698284234888E-6</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="16"/>
+      <c r="O23">
+        <f t="shared" si="24"/>
         <v>1.8376426162330351E-6</v>
       </c>
     </row>
-    <row r="25" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D25">
         <v>1</v>
       </c>
@@ -7621,133 +8428,181 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D26">
         <v>10</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26:H31" si="22">$A$2*($D$25/(E2+$D$25))</f>
+        <f t="shared" ref="E26:H31" si="34">$A$2*($D$25/(E2+$D$25))</f>
         <v>0.10309278350515463</v>
       </c>
       <c r="F26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.16129032258064516</v>
       </c>
       <c r="G26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.29411764705882354</v>
       </c>
       <c r="H26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.71428571428571419</v>
       </c>
+      <c r="I26">
+        <f t="shared" ref="I26:J26" si="35">$A$2*($D$25/(I2+$D$25))</f>
+        <v>0.3125</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="35"/>
+        <v>0.3125</v>
+      </c>
     </row>
-    <row r="27" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D27">
         <v>100</v>
       </c>
       <c r="E27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="F27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.1111111111111112</v>
       </c>
       <c r="G27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>1.4285714285714284</v>
       </c>
       <c r="H27">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>2.083333333333333</v>
       </c>
+      <c r="I27">
+        <f t="shared" ref="I27:J27" si="36">$A$2*($D$25/(I3+$D$25))</f>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="28" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D28">
         <v>1000</v>
       </c>
       <c r="E28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>2.7343749999999929</v>
       </c>
       <c r="F28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>3.6144578313252977</v>
       </c>
       <c r="G28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>3.597122302158271</v>
       </c>
       <c r="H28">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>3.8710926158908343</v>
       </c>
+      <c r="I28">
+        <f t="shared" ref="I28:J28" si="37">$A$2*($D$25/(I4+$D$25))</f>
+        <v>2.7713625866050862</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="37"/>
+        <v>2.469135802469133</v>
+      </c>
     </row>
-    <row r="29" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D29">
         <v>10000</v>
       </c>
       <c r="E29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.5802953823144481</v>
       </c>
       <c r="F29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.8205677557578994</v>
       </c>
       <c r="G29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.7137200678775679</v>
       </c>
       <c r="H29">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.7275917322693886</v>
       </c>
+      <c r="I29">
+        <f t="shared" ref="I29:J29" si="38">$A$2*($D$25/(I5+$D$25))</f>
+        <v>4.2282056552250697</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="38"/>
+        <v>3.9820806371328987</v>
+      </c>
     </row>
-    <row r="30" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D30">
         <v>100000</v>
       </c>
       <c r="E30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.9667963150136245</v>
       </c>
       <c r="F30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.9867942300943797</v>
       </c>
       <c r="G30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.9532435820272545</v>
       </c>
       <c r="H30">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.9452424010742675</v>
       </c>
+      <c r="I30">
+        <f t="shared" ref="I30:J30" si="39">$A$2*($D$25/(I6+$D$25))</f>
+        <v>4.8029444717914584</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="39"/>
+        <v>4.7058131498066196</v>
+      </c>
     </row>
-    <row r="31" spans="4:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D31">
         <v>200000</v>
       </c>
       <c r="E31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.9886415708875909</v>
       </c>
       <c r="F31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.994978084230727</v>
       </c>
       <c r="G31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.9732061124175253</v>
       </c>
       <c r="H31">
-        <f t="shared" si="22"/>
+        <f t="shared" si="34"/>
         <v>4.9666422240393864</v>
       </c>
+      <c r="I31">
+        <f t="shared" ref="I31:J31" si="40">$A$2*($D$25/(I7+$D$25))</f>
+        <v>4.8726547707050063</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="40"/>
+        <v>4.8040448176767061</v>
+      </c>
     </row>
-    <row r="33" spans="4:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D33">
         <v>10</v>
       </c>
@@ -7755,133 +8610,181 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="4:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D34">
         <v>10</v>
       </c>
       <c r="E34">
-        <f t="shared" ref="E34:H39" si="23">$A$2*($D$33/(E2+$D$33))</f>
+        <f t="shared" ref="E34:H39" si="41">$A$2*($D$33/(E2+$D$33))</f>
         <v>0.86956521739130432</v>
       </c>
       <c r="F34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>1.25</v>
       </c>
       <c r="G34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>1.9230769230769231</v>
       </c>
       <c r="H34">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>3.125</v>
       </c>
+      <c r="I34">
+        <f t="shared" ref="I34:J34" si="42">$A$2*($D$33/(I2+$D$33))</f>
+        <v>2</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="42"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="4:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D35">
         <v>100</v>
       </c>
       <c r="E35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>3.0303030303030303</v>
       </c>
       <c r="F35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>3.7037037037037033</v>
       </c>
       <c r="G35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4</v>
       </c>
       <c r="H35">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.3859649122807012</v>
       </c>
+      <c r="I35">
+        <f t="shared" ref="I35:J35" si="43">$A$2*($D$33/(I3+$D$33))</f>
+        <v>3.7037037037037033</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="43"/>
+        <v>3.5714285714285716</v>
+      </c>
     </row>
-    <row r="36" spans="4:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D36">
         <v>1000</v>
       </c>
       <c r="E36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.6174142480211069</v>
       </c>
       <c r="F36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.8154093097913311</v>
       </c>
       <c r="G36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.8123195380173236</v>
       </c>
       <c r="H36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.8583192644504631</v>
       </c>
+      <c r="I36">
+        <f t="shared" ref="I36:J36" si="44">$A$2*($D$33/(I4+$D$33))</f>
+        <v>4.6278441959120729</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="44"/>
+        <v>4.5351473922902485</v>
+      </c>
     </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D37">
         <v>10000</v>
       </c>
       <c r="E37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9545996885680195</v>
       </c>
       <c r="F37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9814579066806886</v>
       </c>
       <c r="G37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9698166468978409</v>
       </c>
       <c r="H37">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9713545887948722</v>
       </c>
+      <c r="I37">
+        <f t="shared" ref="I37:J37" si="45">$A$2*($D$33/(I5+$D$33))</f>
+        <v>4.910368720951249</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="45"/>
+        <v>4.8753732707660422</v>
+      </c>
     </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D38">
         <v>100000</v>
       </c>
       <c r="E38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9966596674584602</v>
       </c>
       <c r="F38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9986762764675277</v>
       </c>
       <c r="G38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9952846732810743</v>
       </c>
       <c r="H38">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9944697317494802</v>
       </c>
+      <c r="I38">
+        <f t="shared" ref="I38:J38" si="46">$A$2*($D$33/(I6+$D$33))</f>
+        <v>4.9795697876475726</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="46"/>
+        <v>4.9689363836391562</v>
+      </c>
     </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D39">
         <v>200000</v>
       </c>
       <c r="E39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9988618300807373</v>
       </c>
       <c r="F39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9994973540588692</v>
       </c>
       <c r="G39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9973076261927503</v>
       </c>
       <c r="H39">
-        <f t="shared" si="23"/>
+        <f t="shared" si="41"/>
         <v>4.9966440720713816</v>
       </c>
+      <c r="I39">
+        <f t="shared" ref="I39:J39" si="47">$A$2*($D$33/(I7+$D$33))</f>
+        <v>4.9869667265348818</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="47"/>
+        <v>4.9796880396674137</v>
+      </c>
     </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D41">
         <v>100</v>
       </c>
@@ -7889,130 +8792,178 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D42">
         <v>10</v>
       </c>
       <c r="E42">
-        <f t="shared" ref="E42:H47" si="24">$A$2*($D$41/(E2+$D$41))</f>
+        <f t="shared" ref="E42:H47" si="48">$A$2*($D$41/(E2+$D$41))</f>
         <v>3.3898305084745761</v>
       </c>
       <c r="F42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>3.8461538461538463</v>
       </c>
       <c r="G42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.3103448275862064</v>
       </c>
       <c r="H42">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.716981132075472</v>
       </c>
+      <c r="I42">
+        <f t="shared" ref="I42:J42" si="49">$A$2*($D$41/(I2+$D$41))</f>
+        <v>4.3478260869565215</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="49"/>
+        <v>4.3478260869565215</v>
+      </c>
     </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D43">
         <v>100</v>
       </c>
       <c r="E43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.694835680751174</v>
       </c>
       <c r="F43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.8309178743961354</v>
       </c>
       <c r="G43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.8780487804878048</v>
       </c>
       <c r="H43">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9309664694280073</v>
       </c>
+      <c r="I43">
+        <f t="shared" ref="I43:J43" si="50">$A$2*($D$41/(I3+$D$41))</f>
+        <v>4.8309178743961354</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="50"/>
+        <v>4.8076923076923075</v>
+      </c>
     </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D44">
         <v>1000</v>
       </c>
       <c r="E44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9589118730518553</v>
       </c>
       <c r="F44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9809065249875477</v>
       </c>
       <c r="G44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9805757545572265</v>
       </c>
       <c r="H44">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9854611489244496</v>
       </c>
+      <c r="I44">
+        <f t="shared" ref="I44:J44" si="51">$A$2*($D$41/(I4+$D$41))</f>
+        <v>4.9601124292150631</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="51"/>
+        <v>4.9492699826775546</v>
+      </c>
     </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D45">
         <v>10000</v>
       </c>
       <c r="E45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9954225617750261</v>
       </c>
       <c r="F45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9981395813780418</v>
       </c>
       <c r="G45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9969651764828162</v>
       </c>
       <c r="H45">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9971206122552125</v>
       </c>
+      <c r="I45">
+        <f t="shared" ref="I45:J45" si="52">$A$2*($D$41/(I5+$D$41))</f>
+        <v>4.9908898929974006</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="52"/>
+        <v>4.9872513387652813</v>
+      </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D46">
         <v>100000</v>
       </c>
       <c r="E46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9996657657842283</v>
       </c>
       <c r="F46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9998675960988432</v>
       </c>
       <c r="G46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9995280667706217</v>
       </c>
       <c r="H46">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9994464221167938</v>
       </c>
+      <c r="I46">
+        <f t="shared" ref="I46:J46" si="53">$A$2*($D$41/(I6+$D$41))</f>
+        <v>4.9979494379494929</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="53"/>
+        <v>4.996876171630829</v>
+      </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
       <c r="D47">
         <v>200000</v>
       </c>
       <c r="E47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9998861596855422</v>
       </c>
       <c r="F47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9999497308577219</v>
       </c>
       <c r="G47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9997306320762291</v>
       </c>
       <c r="H47">
-        <f t="shared" si="24"/>
+        <f t="shared" si="48"/>
         <v>4.9996642043640662</v>
+      </c>
+      <c r="I47">
+        <f t="shared" ref="I47:J47" si="54">$A$2*($D$41/(I7+$D$41))</f>
+        <v>4.9986936078716333</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="54"/>
+        <v>4.997961350352</v>
       </c>
     </row>
   </sheetData>
@@ -8027,7 +8978,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8120,7 +9071,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8130,7 +9081,7 @@
         <v>10</v>
       </c>
       <c r="B1">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -8138,7 +9089,7 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>3.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8146,7 +9097,7 @@
         <v>1000</v>
       </c>
       <c r="B3">
-        <v>0.38333333333333458</v>
+        <v>1.0250000000000021</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8154,7 +9105,7 @@
         <v>10000</v>
       </c>
       <c r="B4">
-        <v>3.722222222222242E-2</v>
+        <v>0.2556250000000011</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8162,7 +9113,7 @@
         <v>100000</v>
       </c>
       <c r="B5">
-        <v>2.648148148148172E-3</v>
+        <v>6.2515625000000283E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8170,7 +9121,7 @@
         <v>200000</v>
       </c>
       <c r="B6">
-        <v>1.0053929536002959E-3</v>
+        <v>4.0789624110555103E-2</v>
       </c>
     </row>
   </sheetData>
